--- a/EL - Electrical/Autre/Carte avant/Arduino/Bus Can ID/Bus CAN ID List.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Arduino/Bus Can ID/Bus CAN ID List.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4D9D64A577C11A406BCC1CC75C657C5BDEDD98" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FB2475E9-D343-4B2D-A9B3-EF12128B21DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF5B32-167A-4328-A612-52F53C285F9B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>System</t>
   </si>
@@ -142,10 +147,34 @@
     <t>Homing</t>
   </si>
   <si>
-    <t>Launch control</t>
-  </si>
-  <si>
     <t>Erreur Motored</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>Reset Motored</t>
+  </si>
+  <si>
+    <t>Neutre</t>
+  </si>
+  <si>
+    <t>// MSG:</t>
+  </si>
+  <si>
+    <t>// 0x11 0x11 0x11 0x11 0x11 0x11 0x11 0x11</t>
+  </si>
+  <si>
+    <t>pas de MAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 0x00 0x00 0x00 0x00 0x00 0x00 0x00 0x00 </t>
+  </si>
+  <si>
+    <t>MAJ</t>
   </si>
 </sst>
 </file>
@@ -181,8 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,208 +498,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2000</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="str">
+        <f>DEC2HEX(B3)</f>
+        <v>7D0</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
         <v>2001</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="str">
+        <f t="shared" ref="C4:C14" si="0">DEC2HEX(B4)</f>
+        <v>7D1</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
         <v>2002</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7D2</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>2003</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7D3</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>2004</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7D4</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>2005</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7D5</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>2006</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7D6</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
         <v>2007</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7D7</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3E8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3E9</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>3000</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3EA</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>DEC2HEX(B16)</f>
+        <v>44C</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>4000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EL - Electrical/Autre/Carte avant/Arduino/Bus Can ID/Bus CAN ID List.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Arduino/Bus Can ID/Bus CAN ID List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF5B32-167A-4328-A612-52F53C285F9B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F710D52-A753-46E4-B6D9-4FFBBEC73F28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>System</t>
   </si>
@@ -175,6 +176,18 @@
   </si>
   <si>
     <t>MAJ</t>
+  </si>
+  <si>
+    <t>6+256*7</t>
+  </si>
+  <si>
+    <t>4+256*5</t>
+  </si>
+  <si>
+    <t>2+256*3</t>
+  </si>
+  <si>
+    <t>0+256*1</t>
   </si>
 </sst>
 </file>
@@ -190,12 +203,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +521,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +562,18 @@
       <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
